--- a/drafts/tables/TableXX_interactions.xlsx
+++ b/drafts/tables/TableXX_interactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/p_meta/drafts/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20010C3F-F7DB-B842-A892-76D6BC089535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19B2ABC-F75D-8849-AA05-96C0091B2EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="680" windowWidth="11380" windowHeight="18960" xr2:uid="{8C0274CA-637A-D549-8DE8-7F2B3B672490}"/>
+    <workbookView xWindow="70220" yWindow="660" windowWidth="25140" windowHeight="25020" xr2:uid="{8C0274CA-637A-D549-8DE8-7F2B3B672490}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>variable</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>root_shoot</t>
+  </si>
+  <si>
+    <t>estimate_perc</t>
+  </si>
+  <si>
+    <t>se_perc</t>
+  </si>
+  <si>
+    <t>estimate_se_perc</t>
+  </si>
+  <si>
+    <t>ci.lb_perc</t>
+  </si>
+  <si>
+    <t>ci.ub_perc</t>
+  </si>
+  <si>
+    <t>ci_range_perc</t>
   </si>
 </sst>
 </file>
@@ -155,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -163,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,26 +519,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A491FF-591D-5142-A76B-95AF05C56DB3}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,62 +556,104 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3">
         <v>88</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
+        <f>(EXP(C2)-1)*100</f>
+        <v>-3.728705910880048</v>
+      </c>
+      <c r="E2" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>CONCATENATE(C2, "±", D2)</f>
+      <c r="F2" s="4">
+        <f>(EXP(E2)-1)*100</f>
+        <v>8.6541808548238119</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>CONCATENATE(C2, "±", E2)</f>
         <v>-0.038±0.083</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="4" t="str">
+        <f>CONCATENATE(ROUND(D2, 3), "±", ROUND(F2, 3))</f>
+        <v>-3.729±8.654</v>
+      </c>
+      <c r="I2" s="4">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="4">
         <v>0.64600000000000002</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="4">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="4">
+        <f>(EXP(K2)-1)*100</f>
+        <v>-18.208756844614062</v>
+      </c>
+      <c r="M2" s="4">
         <v>0.125</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f>CONCATENATE("[",H2,", ",I2,"]")</f>
+      <c r="N2" s="4">
+        <f>(EXP(M2)-1)*100</f>
+        <v>13.314845306682631</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>CONCATENATE("[",K2,", ",M2,"]")</f>
         <v>[-0.201, 0.125]</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P2" s="4" t="str">
+        <f>CONCATENATE("[", ROUND(L2, 3), ", ", ROUND(N2, 3), "]")</f>
+        <v>[-18.209, 13.315]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -593,65 +663,113 @@
       <c r="C3" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">(EXP(C3)-1)*100</f>
+        <v>2.6340948473442038</v>
+      </c>
+      <c r="E3" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E18" si="0">CONCATENATE(C3, "±", D3)</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F18" si="1">(EXP(E3)-1)*100</f>
+        <v>6.3962344728033749</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G18" si="2">CONCATENATE(C3, "±", E3)</f>
         <v>0.026±0.062</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H18" si="3">CONCATENATE(ROUND(D3, 3), "±", ROUND(F3, 3))</f>
+        <v>2.634±6.396</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="2">
         <v>0.67200000000000004</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L18" si="4">(EXP(K3)-1)*100</f>
+        <v>-9.1535983931293803</v>
+      </c>
+      <c r="M3">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J18" si="1">CONCATENATE("[",H3,", ",I3,"]")</f>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N18" si="5">(EXP(M3)-1)*100</f>
+        <v>16.067298920908545</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O18" si="6">CONCATENATE("[",K3,", ",M3,"]")</f>
         <v>[-0.096, 0.149]</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P18" si="7">CONCATENATE("[", ROUND(L3, 3), ", ", ROUND(N3, 3), "]")</f>
+        <v>[-9.154, 16.067]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E4" s="1" t="str">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>-0.039±0.178</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.219</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-0.38800000000000001</v>
+        <v>-4.9721329467573021</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>18.530485132036546</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.051±0.17</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-4.972±18.53</v>
       </c>
       <c r="I4" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>[-0.388, 0.31]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="K4">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="4"/>
+        <v>-31.886857282045288</v>
+      </c>
+      <c r="M4">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="5"/>
+        <v>32.710516181715718</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.384, 0.283]</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-31.887, 32.711]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -661,133 +779,229 @@
       <c r="C5" s="1">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>-11.219219923804991</v>
+      </c>
+      <c r="E5" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9295478174600245</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>-0.119±0.067</v>
       </c>
-      <c r="F5" s="1">
-        <v>-1.7909999999999999</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-11.219±6.93</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1.7809999999999999</v>
+      </c>
+      <c r="J5" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5">
         <v>-0.249</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="4">
+        <f t="shared" si="4"/>
+        <v>-22.042002661529956</v>
+      </c>
+      <c r="M5">
         <v>1.2E-2</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="N5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2072288866077807</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>[-0.249, 0.012]</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P5" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-22.042, 1.207]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="E6" s="1" t="str">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>-0.084±0.171</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.48899999999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-0.41899999999999998</v>
+        <v>-9.3351096246079059</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>19.721736312181015</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.098±0.18</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-9.335±19.722</v>
       </c>
       <c r="I6" s="1">
-        <v>0.252</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>[-0.419, 0.252]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="K6">
+        <v>-0.45</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="4"/>
+        <v>-36.237184837822667</v>
+      </c>
+      <c r="M6">
+        <v>0.254</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="5"/>
+        <v>28.917180426780419</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.45, 0.254]</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-36.237, 28.917]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.49399999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="E7" s="1" t="str">
+        <v>-0.51</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>-0.494±0.181</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-2.7240000000000002</v>
-      </c>
-      <c r="G7" s="1">
+        <v>-39.95044211877341</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>20.321844012769532</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.51±0.185</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-39.95±20.322</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-2.7629999999999999</v>
+      </c>
+      <c r="J7" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="1">
-        <v>-0.85</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-0.13900000000000001</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>[-0.85, -0.139]</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>-0.872</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="4"/>
+        <v>-58.188551650608069</v>
+      </c>
+      <c r="M7">
+        <v>-0.14799999999999999</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="5"/>
+        <v>-13.75688850579545</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.872, -0.148]</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-58.189, -13.757]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>85</v>
       </c>
-      <c r="C8">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>19.721736312181015</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.248</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0.176±0.248</v>
-      </c>
-      <c r="F8">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="G8">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="H8">
-        <v>-0.311</v>
-      </c>
-      <c r="I8">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="J8" s="2" t="str">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>[-0.311, 0.663]</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28.145993219402122</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0.18±0.248</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>19.722±28.146</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="K8">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="4"/>
+        <v>-26.287662560837223</v>
+      </c>
+      <c r="M8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="5"/>
+        <v>94.449052133683111</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.305, 0.665]</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-26.288, 94.449]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -797,31 +1011,55 @@
       <c r="C9" s="1">
         <v>0.155</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>16.765796110512497</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.26600000000000001</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>30.473505868692797</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0.155±0.266</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>16.766±30.474</v>
+      </c>
+      <c r="I9" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9">
         <v>-0.36599999999999999</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="4">
+        <f t="shared" si="4"/>
+        <v>-30.649719879024417</v>
+      </c>
+      <c r="M9">
         <v>0.67600000000000005</v>
       </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="N9" s="4">
+        <f t="shared" si="5"/>
+        <v>96.599799128972592</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>[-0.366, 0.676]</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-30.65, 96.6]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -831,31 +1069,55 @@
       <c r="C10" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>15.372980166601046</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.29399999999999998</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>34.178390366697144</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0.143±0.294</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15.373±34.178</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10" s="2">
         <v>0.627</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10">
         <v>-0.433</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10" s="4">
+        <f t="shared" si="4"/>
+        <v>-35.143950819502393</v>
+      </c>
+      <c r="M10">
         <v>0.71899999999999997</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="N10" s="4">
+        <f t="shared" si="5"/>
+        <v>105.23798043075291</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>[-0.433, 0.719]</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-35.144, 105.238]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -865,266 +1127,458 @@
       <c r="C11" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1988122028197505</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.115</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>12.187343757193837</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0.088±0.115</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>9.199±12.187</v>
+      </c>
+      <c r="I11" s="1">
         <v>0.76100000000000001</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11" s="2">
         <v>0.44700000000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11">
         <v>-0.13800000000000001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="4">
+        <f t="shared" si="4"/>
+        <v>-12.890130825420165</v>
+      </c>
+      <c r="M11">
         <v>0.313</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="5"/>
+        <v>36.752153102760523</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>[-0.138, 0.313]</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-12.89, 36.752]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f>CONCATENATE(C12, "±", D12)</f>
-        <v>0.134±0.395</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-0.63900000000000001</v>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>15.372980166601046</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>49.331726849996002</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0.143±0.401</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15.373±49.332</v>
       </c>
       <c r="I12" s="1">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>[-0.639, 0.908]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K12">
+        <v>-0.64300000000000002</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="4"/>
+        <v>-47.42870827842097</v>
+      </c>
+      <c r="M12">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="5"/>
+        <v>153.19759352725134</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.643, 0.929]</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-47.429, 153.198]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="E13" s="1" t="str">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>-0.116±0.278</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.41699999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-0.66100000000000003</v>
+        <v>-10.952477670252737</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>29.433881862423771</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.116±0.258</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-10.952±29.434</v>
       </c>
       <c r="I13" s="1">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>[-0.661, 0.429]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K13">
+        <v>-0.622</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="4"/>
+        <v>-46.313037610854046</v>
+      </c>
+      <c r="M13">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="5"/>
+        <v>47.845851341314713</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.622, 0.391]</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-46.313, 47.846]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B14">
         <v>42</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>14.3392819644647</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.104</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>10.960045491558246</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0.134±0.104</v>
       </c>
-      <c r="F14">
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14.339±10.96</v>
+      </c>
+      <c r="I14" s="1">
         <v>1.2889999999999999</v>
       </c>
-      <c r="G14">
+      <c r="J14" s="2">
         <v>0.19700000000000001</v>
       </c>
-      <c r="H14">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="I14">
+      <c r="K14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="4"/>
+        <v>-6.7606180094051727</v>
+      </c>
+      <c r="M14">
         <v>0.33700000000000002</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>[-0.069, 0.337]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N14" s="4">
+        <f t="shared" si="5"/>
+        <v>40.073906373853532</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.07, 0.337]</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-6.761, 40.074]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15">
         <v>125</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.182</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>19.961419387986833</v>
+      </c>
+      <c r="E15" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>7.788415088463152</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0.182±0.075</v>
       </c>
-      <c r="F15">
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>19.961±7.788</v>
+      </c>
+      <c r="I15" s="1">
         <v>2.4180000000000001</v>
       </c>
-      <c r="G15">
+      <c r="J15" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I15">
+      <c r="L15" s="4">
+        <f>(EXP(K15)-1)*100</f>
+        <v>3.5619708799623284</v>
+      </c>
+      <c r="M15">
         <v>0.33</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="5"/>
+        <v>39.096812846378029</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>[0.035, 0.33]</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P15" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[3.562, 39.097]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B16">
         <v>63</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9770483650157784</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.09</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>9.4174283705210406</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>0.039±0.09</v>
       </c>
-      <c r="F16">
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3.977±9.417</v>
+      </c>
+      <c r="I16" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="G16">
+      <c r="J16" s="2">
         <v>0.66800000000000004</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>-0.13800000000000001</v>
       </c>
-      <c r="I16">
+      <c r="L16" s="4">
+        <f t="shared" si="4"/>
+        <v>-12.890130825420165</v>
+      </c>
+      <c r="M16">
         <v>0.216</v>
       </c>
-      <c r="J16" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="5"/>
+        <v>24.110237900067165</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="6"/>
         <v>[-0.138, 0.216]</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P16" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-12.89, 24.11]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B17">
         <v>40</v>
       </c>
-      <c r="C17">
-        <v>0.122</v>
-      </c>
-      <c r="D17">
-        <v>0.129</v>
-      </c>
-      <c r="E17" s="1" t="str">
+      <c r="C17" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>0.122±0.129</v>
-      </c>
-      <c r="F17">
-        <v>0.94</v>
-      </c>
-      <c r="G17">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="H17">
-        <v>-0.13200000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.375</v>
-      </c>
-      <c r="J17" s="2" t="str">
+        <v>13.655300269706029</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>[-0.132, 0.375]</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14.91241000036052</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0.128±0.139</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13.655±14.912</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="K17">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="4"/>
+        <v>-13.49777068892587</v>
+      </c>
+      <c r="M17">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="5"/>
+        <v>49.331726849996002</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.145, 0.401]</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-13.498, 49.332]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B18">
         <v>37</v>
       </c>
-      <c r="C18">
-        <v>0.128</v>
-      </c>
-      <c r="D18">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E18" s="1" t="str">
+      <c r="C18" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>0.128±0.139</v>
-      </c>
-      <c r="F18">
-        <v>0.92</v>
-      </c>
-      <c r="G18">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="H18">
-        <v>-0.14499999999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="J18" s="2" t="str">
+        <v>12.975410178031876</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>[-0.145, 0.401]</v>
+        <v>13.769012416573156</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0.122±0.129</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12.975±13.769</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="K18">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="4"/>
+        <v>-12.365900492062675</v>
+      </c>
+      <c r="M18">
+        <v>0.375</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="5"/>
+        <v>45.499141461820123</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>[-0.132, 0.375]</v>
+      </c>
+      <c r="P18" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[-12.366, 45.499]</v>
       </c>
     </row>
   </sheetData>
